--- a/gameon/sales-19-25-Dec.xlsx
+++ b/gameon/sales-19-25-Dec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rupak\data-science\gameon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38C2B40-41BC-47EA-8FD8-C71B3A2529B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159EF7E7-1B86-4A1F-A967-38DB3C0BC0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="330">
   <si>
     <t>Year</t>
   </si>
@@ -953,6 +953,72 @@
   </si>
   <si>
     <t>apacs Vanguard 11 Strung Racquet with Full Cover &amp; Grip Red Strung Badminton Racquet G4 - 8.25 cm</t>
+  </si>
+  <si>
+    <t>OD326844501987643100</t>
+  </si>
+  <si>
+    <t>Chhattisgarh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhanupratappur </t>
+  </si>
+  <si>
+    <t>OD426839150627168100</t>
+  </si>
+  <si>
+    <t>Yonex-2020-162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bilaspur </t>
+  </si>
+  <si>
+    <t>YONEX Astrox Lite 27i &amp; 1Grip Black Strung Badminton Racquet G4 - 8.25 cm</t>
+  </si>
+  <si>
+    <t>OD326839301441767100</t>
+  </si>
+  <si>
+    <t>Yonex-2021-123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raigarh </t>
+  </si>
+  <si>
+    <t>YONEX Astrox Lite 27i Graphite Strunged with BG 65 (30lbs)&amp; 1Grip Black Strung Badminton Racquet G4 - 8.25 cm</t>
+  </si>
+  <si>
+    <t>OD326840181372900100</t>
+  </si>
+  <si>
+    <t>OD426840190788178100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singhesar </t>
+  </si>
+  <si>
+    <t>OD426844964287446100</t>
+  </si>
+  <si>
+    <t>Gos-Apacs-43-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salur </t>
+  </si>
+  <si>
+    <t>apacs Z-Ziggler Strunged 24lbs with Full Cover &amp; 1Grip Grey Strung Badminton Racquet G4 - 8.25 cm</t>
+  </si>
+  <si>
+    <t>OD326850193182090100</t>
+  </si>
+  <si>
+    <t>Gos-Apacs-2021-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puruliya </t>
+  </si>
+  <si>
+    <t>apacs Dual Power Speed &amp; Free Full Cover and 1Grip Black Unstrung Badminton Racquet G4 - 8.25 cm</t>
   </si>
 </sst>
 </file>
@@ -1338,10 +1404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P68"/>
+  <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A75" sqref="A1:P75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4727,6 +4793,342 @@
       </c>
       <c r="P68" s="8" t="s">
         <v>307</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A69" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="7">
+        <v>44916</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K69" s="8">
+        <v>2899</v>
+      </c>
+      <c r="L69" s="8"/>
+      <c r="M69" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N69" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="O69" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="P69" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A70" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="7">
+        <v>44915</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K70" s="8">
+        <v>2399</v>
+      </c>
+      <c r="L70" s="8"/>
+      <c r="M70" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N70" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="O70" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="P70" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A71" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="7">
+        <v>44915</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K71" s="8">
+        <v>2859</v>
+      </c>
+      <c r="L71" s="8"/>
+      <c r="M71" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N71" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="O71" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="P71" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A72" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="7">
+        <v>44915</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K72" s="8">
+        <v>2449</v>
+      </c>
+      <c r="L72" s="8"/>
+      <c r="M72" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N72" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O72" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="P72" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A73" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="7">
+        <v>44915</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K73" s="8">
+        <v>2449</v>
+      </c>
+      <c r="L73" s="8"/>
+      <c r="M73" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N73" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="O73" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="P73" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A74" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="7">
+        <v>44916</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K74" s="8">
+        <v>3044</v>
+      </c>
+      <c r="L74" s="8"/>
+      <c r="M74" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N74" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="O74" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="P74" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A75" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="7">
+        <v>44916</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K75" s="8">
+        <v>2409</v>
+      </c>
+      <c r="L75" s="8"/>
+      <c r="M75" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N75" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O75" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="P75" s="8" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
